--- a/most boringlog.xlsx
+++ b/most boringlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37868D62-5262-49FA-9BB3-54F3B616CBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA659D6-D033-4C5C-8541-C24A05F202E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -301,39 +301,15 @@
       <name val="Courier New Bold"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -341,206 +317,54 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,113 +683,116 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="L1" s="43" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="K2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>1.45</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="7">
         <v>3.8</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="8">
         <v>54</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="8">
         <v>23</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="38" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="8">
         <v>13</v>
       </c>
     </row>
@@ -979,16 +806,16 @@
       <c r="C5" s="6">
         <v>1.95</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="38" t="s">
+      <c r="D5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="8">
         <v>10</v>
       </c>
     </row>
@@ -996,24 +823,24 @@
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="11">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="38" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="8">
         <v>11</v>
       </c>
     </row>
@@ -1021,22 +848,22 @@
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="11">
         <v>3.45</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="38" t="s">
+      <c r="D7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="9">
         <v>8</v>
       </c>
     </row>
@@ -1050,25 +877,25 @@
       <c r="C8" s="6">
         <v>4.95</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="7">
         <v>12.3</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="8">
         <v>77</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="8">
         <v>18</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="38" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="7">
         <v>22.5</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="8">
         <v>38</v>
       </c>
     </row>
@@ -1076,30 +903,30 @@
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="12">
         <v>6.25</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="7">
         <v>11.3</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="7">
         <v>41</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="9">
         <v>19.8</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="7">
         <v>21.2</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="7">
         <v>20</v>
       </c>
     </row>
@@ -1113,351 +940,351 @@
       <c r="C10" s="6">
         <v>6.5</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="7">
         <v>14.2</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="38" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="7">
         <v>22.5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="12">
         <v>6.5</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="12">
         <v>6.73</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="8">
         <v>48</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="8">
         <v>23</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="9">
         <v>13.9</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="9">
         <v>9.4</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="5">
         <v>22.5</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="12">
         <v>7.5</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="12">
         <v>7.63</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="8">
         <v>33</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="5">
         <v>15</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="39" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="6">
         <v>9</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="6">
         <v>9.1</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="40" t="s">
+      <c r="D13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>9.32</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>9.32</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="35" t="s">
+      <c r="D14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="6">
         <v>9.32</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="6">
         <v>10.51</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="35" t="s">
+      <c r="D15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="6">
         <v>10.51</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="6">
         <v>12</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="35" t="s">
+      <c r="D16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="11">
         <v>12</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="41" t="s">
+      <c r="D17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="6">
         <v>13.5</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="6">
         <v>13.78</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="15">
         <v>30</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="15">
         <v>13</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="7">
         <v>28.7</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="9">
         <v>18.399999999999999</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="7">
         <v>10.3</v>
       </c>
-      <c r="K18" s="41" t="s">
+      <c r="K18" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="6">
         <v>15</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="6">
         <v>15.15</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="41" t="s">
+      <c r="D19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="12">
         <v>16.5</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="35" t="s">
+      <c r="D20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="6">
         <v>17</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="6">
         <v>17</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="35" t="s">
+      <c r="D21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="6">
         <v>17</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="35" t="s">
+      <c r="D22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="6">
         <v>18.32</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="35" t="s">
+      <c r="D23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="6">
         <v>18.32</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="6">
         <v>19.350000000000001</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="35" t="s">
+      <c r="D24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="6">
         <v>19.350000000000001</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="6">
         <v>20</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="42" t="s">
+      <c r="D25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="14" t="s">
         <v>52</v>
       </c>
     </row>

--- a/most boringlog.xlsx
+++ b/most boringlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA7DCE2-99A4-4BB3-922B-8E3ECC3F614D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25684BE-F76C-4CF7-9471-1C66AC823A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Depth, m</t>
   </si>
@@ -185,24 +185,6 @@
   </si>
   <si>
     <t>SC</t>
-  </si>
-  <si>
-    <t>SM/Decomposed Granite</t>
-  </si>
-  <si>
-    <t>(Granite)</t>
-  </si>
-  <si>
-    <t>Granite</t>
-  </si>
-  <si>
-    <t>Decomposed Granite</t>
-  </si>
-  <si>
-    <t>SC/Decomposed Granite</t>
-  </si>
-  <si>
-    <t>(SM/Decomposed Granite)</t>
   </si>
 </sst>
 </file>
@@ -630,7 +612,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="L1" sqref="L1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +942,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -976,9 +958,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -996,9 +976,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1016,11 +994,9 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1036,11 +1012,9 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -1056,11 +1030,9 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -1088,11 +1060,9 @@
       <c r="J18" s="5">
         <v>10.3</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1108,11 +1078,9 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -1128,11 +1096,9 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -1148,9 +1114,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1168,9 +1132,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1188,9 +1150,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1208,9 +1168,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1228,9 +1186,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="K25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/most boringlog.xlsx
+++ b/most boringlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25684BE-F76C-4CF7-9471-1C66AC823A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AE441A-3C1C-454D-8789-C5E2DC5E589D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -142,12 +142,6 @@
     <t>SS-11</t>
   </si>
   <si>
-    <t>DB-12</t>
-  </si>
-  <si>
-    <t>DB-13</t>
-  </si>
-  <si>
     <t>SS-14</t>
   </si>
   <si>
@@ -166,18 +160,6 @@
     <t>SS-18</t>
   </si>
   <si>
-    <t>DB-19</t>
-  </si>
-  <si>
-    <t>DB-20</t>
-  </si>
-  <si>
-    <t>DB-21</t>
-  </si>
-  <si>
-    <t>DB-22</t>
-  </si>
-  <si>
     <t>23 .3</t>
   </si>
   <si>
@@ -185,6 +167,24 @@
   </si>
   <si>
     <t>SC</t>
+  </si>
+  <si>
+    <t>ss-12</t>
+  </si>
+  <si>
+    <t>ss-13</t>
+  </si>
+  <si>
+    <t>ss-19</t>
+  </si>
+  <si>
+    <t>ss-20</t>
+  </si>
+  <si>
+    <t>ss-21</t>
+  </si>
+  <si>
+    <t>ss-22</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N1"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +716,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N4" s="6">
         <v>13</v>
@@ -739,7 +739,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N5" s="6">
         <v>10</v>
@@ -764,7 +764,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N6" s="6">
         <v>11</v>
@@ -787,7 +787,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N7" s="7">
         <v>8</v>
@@ -816,7 +816,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L8" s="5">
         <v>22.5</v>
@@ -850,7 +850,7 @@
         <v>21.2</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L9" s="5">
         <v>20</v>
@@ -875,7 +875,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L10" s="5">
         <v>22.5</v>
@@ -901,7 +901,7 @@
         <v>23</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
         <v>13.9</v>
@@ -910,7 +910,7 @@
         <v>9.4</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L11" s="3">
         <v>22.5</v>
@@ -939,7 +939,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4">
         <v>9.32</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4">
         <v>10.51</v>
@@ -1016,13 +1016,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="9">
         <v>12</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7"/>
       <c r="F17" s="7"/>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4">
         <v>13.5</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4">
         <v>15</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="10">
         <v>16.5</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4">
         <v>17</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" s="4">
         <v>17</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4">
         <v>17.899999999999999</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B24" s="4">
         <v>18.32</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4">
         <v>19.350000000000001</v>

--- a/most boringlog.xlsx
+++ b/most boringlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AE441A-3C1C-454D-8789-C5E2DC5E589D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149A40C6-8320-4AB4-A562-3C532A7B9CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +230,17 @@
       <sz val="7"/>
       <name val="Courier New Bold"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,56 +259,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ_42xx-4" xfId="1" xr:uid="{CC15DA18-522F-48C8-981B-F3AD5E957A94}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -609,584 +627,660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="K2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>1.45</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>3.8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>54</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="8">
         <v>23</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>1.5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>1.95</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8" t="s">
+      <c r="D5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="11">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>6.5</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="11">
         <v>3.45</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>4.5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>4.95</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>12.3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="E8" s="12">
+        <v>1.59</v>
+      </c>
+      <c r="F8" s="8">
         <v>77</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="8">
         <v>18</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="7">
         <v>22.5</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="8">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="13">
         <v>6.25</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <v>11.3</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="5">
+      <c r="E9" s="12">
+        <v>1.47</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="7">
         <v>41</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="9">
         <v>19.8</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="7">
         <v>21.2</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>6.25</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>6.5</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <v>14.2</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="7">
         <v>22.5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="13">
         <v>6.5</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="13">
         <v>6.73</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F11" s="6">
+      <c r="E11" s="12">
+        <v>1.64</v>
+      </c>
+      <c r="F11" s="8">
         <v>48</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="8">
         <v>23</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="9">
         <v>13.9</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="9">
         <v>9.4</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="5">
         <v>22.5</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="13">
         <v>7.5</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="13">
         <v>7.63</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="14">
         <v>6.6</v>
       </c>
-      <c r="F12" s="6">
+      <c r="E12" s="12"/>
+      <c r="F12" s="8">
         <v>33</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="5">
         <v>15</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>9</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>9.1</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="11">
         <v>9.32</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="11">
         <v>9.32</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="12">
+        <v>1.89</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="6">
         <v>9.32</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>10.51</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="12"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="6">
         <v>10.51</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>12</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="12"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12">
+        <v>1.85</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="11">
         <v>12</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="12"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12">
+        <v>1.94</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="6">
         <v>13.5</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="6">
         <v>13.78</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="F18" s="13">
+      <c r="E18" s="12">
+        <v>1.97</v>
+      </c>
+      <c r="F18" s="16">
         <v>30</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="16">
         <v>13</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="7">
         <v>28.7</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="9">
         <v>18.399999999999999</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="7">
         <v>10.3</v>
       </c>
-      <c r="K18" s="12"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="6">
         <v>15</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <v>15.15</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="12"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="12">
+        <v>1.93</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="13">
         <v>16.5</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="13">
         <v>16.52</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="6">
         <v>17</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="6">
         <v>17</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="6">
         <v>17</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="12"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="6">
         <v>18.32</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="12">
+        <v>1.97</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="6">
         <v>18.32</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="6">
         <v>19.350000000000001</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="12"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="12">
+        <v>1.82</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="6">
         <v>19.350000000000001</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="6">
         <v>20</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="12"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/most boringlog.xlsx
+++ b/most boringlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149A40C6-8320-4AB4-A562-3C532A7B9CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC847BE1-A3EE-4FD2-81F3-4437D609893C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,54 +263,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -629,658 +628,695 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="K2" s="3"/>
+      <c r="G2" s="15"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>1.45</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>3.8</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>54</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>23</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>1.5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>1.95</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10" t="s">
+      <c r="D5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>6.5</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="8">
+      <c r="M6" s="10"/>
+      <c r="N6" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>3.45</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="9">
+      <c r="M7" s="10"/>
+      <c r="N7" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>4.5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>4.95</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>12.3</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>1.59</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>77</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>18</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>22.5</v>
       </c>
-      <c r="N8" s="8">
+      <c r="M8" s="10">
+        <v>1.59</v>
+      </c>
+      <c r="N8" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>6.25</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>11.3</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>1.47</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="7">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5">
         <v>41</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>19.8</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>21.2</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>20</v>
       </c>
+      <c r="M9" s="10">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>6.25</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>6.5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>14.2</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>22.5</v>
       </c>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>6.5</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>6.73</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>1.64</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>48</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>23</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>13.9</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <v>9.4</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="3">
         <v>22.5</v>
       </c>
+      <c r="M11" s="10">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>7.5</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>7.63</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>6.6</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="8">
+      <c r="E12" s="10"/>
+      <c r="F12" s="6">
         <v>33</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>15</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>9.1</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="15"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="13"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>9.32</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>9.32</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="12">
+      <c r="D14" s="7"/>
+      <c r="E14" s="10">
         <v>1.89</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="M14" s="10">
+        <v>1.89</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>9.32</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>10.51</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="13"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>10.51</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>12</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="12">
+      <c r="D16" s="7"/>
+      <c r="E16" s="10">
         <v>1.85</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="13"/>
+      <c r="M16" s="10">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="12">
+      <c r="D17" s="7"/>
+      <c r="E17" s="10">
         <v>1.94</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="13"/>
+      <c r="M17" s="10">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>13.5</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>13.78</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>1.97</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="14">
         <v>30</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="14">
         <v>13</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <v>28.7</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="7">
         <v>18.399999999999999</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <v>10.3</v>
       </c>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="K18" s="13"/>
+      <c r="M18" s="10">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>15.15</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="12">
+      <c r="D19" s="7"/>
+      <c r="E19" s="10">
         <v>1.93</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="13"/>
+      <c r="M19" s="10">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>16.5</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>16.52</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>17</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>17</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="13"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>18.32</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="12">
+      <c r="D23" s="7"/>
+      <c r="E23" s="10">
         <v>1.97</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="13"/>
+      <c r="M23" s="10">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>18.32</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>19.350000000000001</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="12">
+      <c r="D24" s="7"/>
+      <c r="E24" s="10">
         <v>1.82</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="13"/>
+      <c r="M24" s="10">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>19.350000000000001</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>20</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="12"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="13"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="12"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="12"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="12"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="12"/>
+      <c r="E36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/most boringlog.xlsx
+++ b/most boringlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E515BA1-F804-48DB-BC2A-E29FD92CECA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830C861-735D-49EE-AF1C-FB28C6697D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -263,50 +263,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,609 +623,668 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="K2" s="3"/>
+      <c r="G2" s="14"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>1.45</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>3.8</v>
       </c>
-      <c r="F4" s="8">
+      <c r="E4" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="F4" s="6">
         <v>54</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>23</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="8">
+      <c r="M4" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="N4" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>1.5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>1.95</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="8">
+      <c r="M5" s="7"/>
+      <c r="N5" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>6.5</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10" t="s">
+      <c r="E6" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="8">
+      <c r="M6" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="N6" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>3.45</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="9">
+      <c r="M7" s="7"/>
+      <c r="N7" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>4.5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>4.95</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>12.3</v>
       </c>
-      <c r="F8" s="8">
+      <c r="E8" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="F8" s="6">
         <v>77</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>18</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>22.5</v>
       </c>
-      <c r="N8" s="8">
+      <c r="M8" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="N8" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>6.25</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>11.3</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="7">
+      <c r="E9" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5">
         <v>41</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>19.8</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>21.2</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>20</v>
       </c>
+      <c r="M9" s="5">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>6.25</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>6.5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>14.2</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10" t="s">
+      <c r="E10" s="5">
+        <v>14.2</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>22.5</v>
       </c>
+      <c r="M10" s="5">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>6.5</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>6.73</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F11" s="8">
+      <c r="E11" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F11" s="6">
         <v>48</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>23</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>23.3</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>13.9</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <v>9.4</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="3">
         <v>22.5</v>
       </c>
+      <c r="M11" s="3">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>7.5</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>7.63</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>6.6</v>
       </c>
-      <c r="F12" s="8">
+      <c r="E12" s="11">
+        <v>6.6</v>
+      </c>
+      <c r="F12" s="6">
         <v>33</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>15</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="M12" s="11">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>9.1</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="14" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="12" t="s">
         <v>44</v>
       </c>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>9.32</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>9.32</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>9.32</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>10.51</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="14" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>10.51</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>12</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="14" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>12.13</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="14" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>13.5</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>13.78</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="F18" s="15">
+      <c r="E18" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F18" s="13">
         <v>30</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <v>13</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <v>28.7</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="7">
         <v>18.399999999999999</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <v>10.3</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="M18" s="5">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>15.15</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="14" t="s">
+      <c r="D19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>16.5</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <v>16.52</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14" t="s">
+      <c r="D20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>17</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14" t="s">
+      <c r="D21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>17</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="14" t="s">
+      <c r="D22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>18.32</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="14" t="s">
+      <c r="D23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>18.32</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>19.350000000000001</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="14" t="s">
+      <c r="D24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>19.350000000000001</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>20</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="14" t="s">
+      <c r="D25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="12" t="s">
         <v>46</v>
       </c>
     </row>

--- a/most boringlog.xlsx
+++ b/most boringlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830C861-735D-49EE-AF1C-FB28C6697D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95F4F58-2AD7-4C2F-A49B-470261C5E856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Depth, m</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>SS-05</t>
-  </si>
-  <si>
-    <t>ST-06</t>
   </si>
   <si>
     <r>
@@ -127,9 +124,6 @@
     </r>
   </si>
   <si>
-    <t>ST-07</t>
-  </si>
-  <si>
     <t>SS-08</t>
   </si>
   <si>
@@ -142,12 +136,6 @@
     <t>SS-11</t>
   </si>
   <si>
-    <t>DB-12</t>
-  </si>
-  <si>
-    <t>DB-13</t>
-  </si>
-  <si>
     <t>SS-14</t>
   </si>
   <si>
@@ -163,40 +151,34 @@
     <t>SS-18</t>
   </si>
   <si>
-    <t>DB-19</t>
-  </si>
-  <si>
-    <t>DB-20</t>
-  </si>
-  <si>
-    <t>DB-21</t>
-  </si>
-  <si>
-    <t>DB-22</t>
-  </si>
-  <si>
     <t>SM</t>
   </si>
   <si>
     <t>SC</t>
   </si>
   <si>
-    <t>SM/Decomposed Granite</t>
-  </si>
-  <si>
-    <t>(Granite)</t>
-  </si>
-  <si>
-    <t>Granite</t>
-  </si>
-  <si>
-    <t>Decomposed Granite</t>
-  </si>
-  <si>
-    <t>SC/Decomposed Granite</t>
-  </si>
-  <si>
-    <t>(SM/Decomposed Granite)</t>
+    <t>SS-06</t>
+  </si>
+  <si>
+    <t>SS-07</t>
+  </si>
+  <si>
+    <t>SS-12</t>
+  </si>
+  <si>
+    <t>SS-13</t>
+  </si>
+  <si>
+    <t>SS-19</t>
+  </si>
+  <si>
+    <t>SS-20</t>
+  </si>
+  <si>
+    <t>SS-21</t>
+  </si>
+  <si>
+    <t>SS-22</t>
   </si>
 </sst>
 </file>
@@ -206,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +223,12 @@
     <font>
       <sz val="7"/>
       <name val="Courier New Bold"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -623,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +707,7 @@
         <v>3.8</v>
       </c>
       <c r="E4" s="5">
-        <v>3.8</v>
+        <v>12.3</v>
       </c>
       <c r="F4" s="6">
         <v>54</v>
@@ -731,11 +719,9 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="5">
-        <v>3.8</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="6">
         <v>13</v>
       </c>
@@ -751,14 +737,16 @@
         <v>1.95</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="5">
+        <v>11.3</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="6">
@@ -778,8 +766,8 @@
       <c r="D6" s="7">
         <v>6.5</v>
       </c>
-      <c r="E6" s="7">
-        <v>6.5</v>
+      <c r="E6" s="5">
+        <v>14.2</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -787,11 +775,9 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="7">
-        <v>6.5</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M6" s="7"/>
       <c r="N6" s="6">
         <v>11</v>
       </c>
@@ -807,14 +793,16 @@
         <v>3.45</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="3">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7">
@@ -834,9 +822,7 @@
       <c r="D8" s="5">
         <v>12.3</v>
       </c>
-      <c r="E8" s="5">
-        <v>12.3</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="6">
         <v>77</v>
       </c>
@@ -847,24 +833,22 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L8" s="5">
         <v>22.5</v>
       </c>
-      <c r="M8" s="5">
-        <v>12.3</v>
-      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="10">
         <v>6.25</v>
@@ -872,9 +856,7 @@
       <c r="D9" s="5">
         <v>11.3</v>
       </c>
-      <c r="E9" s="5">
-        <v>11.3</v>
-      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="5">
@@ -887,18 +869,18 @@
         <v>21.2</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L9" s="5">
         <v>20</v>
       </c>
       <c r="M9" s="5">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B10" s="4">
         <v>6.25</v>
@@ -909,27 +891,25 @@
       <c r="D10" s="5">
         <v>14.2</v>
       </c>
-      <c r="E10" s="5">
-        <v>14.2</v>
-      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L10" s="5">
         <v>22.5</v>
       </c>
       <c r="M10" s="5">
-        <v>14.2</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="10">
         <v>6.5</v>
@@ -940,9 +920,7 @@
       <c r="D11" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E11" s="3">
-        <v>9.8000000000000007</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="6">
         <v>48</v>
       </c>
@@ -959,18 +937,18 @@
         <v>9.4</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L11" s="3">
         <v>22.5</v>
       </c>
-      <c r="M11" s="3">
-        <v>9.8000000000000007</v>
+      <c r="M11" s="5">
+        <v>14.2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="10">
         <v>7.5</v>
@@ -981,8 +959,8 @@
       <c r="D12" s="11">
         <v>6.6</v>
       </c>
-      <c r="E12" s="11">
-        <v>6.6</v>
+      <c r="E12" s="5">
+        <v>12.3</v>
       </c>
       <c r="F12" s="6">
         <v>33</v>
@@ -994,15 +972,15 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="11">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="M12" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
@@ -1011,20 +989,22 @@
         <v>9.1</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="5">
+        <v>11.3</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="12" t="s">
-        <v>44</v>
+      <c r="K13" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="9">
         <v>9.32</v>
@@ -1033,20 +1013,22 @@
         <v>9.32</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="5">
+        <v>14.2</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="12" t="s">
-        <v>45</v>
+      <c r="K14" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B15" s="4">
         <v>9.32</v>
@@ -1055,20 +1037,22 @@
         <v>10.51</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="3">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="12" t="s">
-        <v>46</v>
+      <c r="K15" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4">
         <v>10.51</v>
@@ -1083,14 +1067,16 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="K16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="5">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" s="9">
         <v>12</v>
@@ -1105,14 +1091,16 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="K17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="5">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4">
         <v>13.5</v>
@@ -1123,9 +1111,7 @@
       <c r="D18" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="E18" s="5">
-        <v>10.199999999999999</v>
-      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="13">
         <v>30</v>
       </c>
@@ -1141,16 +1127,16 @@
       <c r="J18" s="5">
         <v>10.3</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>48</v>
+      <c r="K18" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="M18" s="5">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4">
         <v>15</v>
@@ -1164,13 +1150,16 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="K19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" s="10">
         <v>16.5</v>
@@ -1179,18 +1168,21 @@
         <v>16.52</v>
       </c>
       <c r="D20" s="7"/>
+      <c r="E20" s="5">
+        <v>12.3</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="K20" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" s="4">
         <v>17</v>
@@ -1199,18 +1191,21 @@
         <v>17</v>
       </c>
       <c r="D21" s="7"/>
+      <c r="E21" s="5">
+        <v>11.3</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="12" t="s">
-        <v>49</v>
+      <c r="K21" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="4">
         <v>17</v>
@@ -1219,18 +1214,21 @@
         <v>17.899999999999999</v>
       </c>
       <c r="D22" s="7"/>
+      <c r="E22" s="5">
+        <v>14.2</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="12" t="s">
-        <v>46</v>
+      <c r="K22" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4">
         <v>17.899999999999999</v>
@@ -1239,18 +1237,21 @@
         <v>18.32</v>
       </c>
       <c r="D23" s="7"/>
+      <c r="E23" s="3">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="12" t="s">
-        <v>46</v>
+      <c r="K23" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4">
         <v>18.32</v>
@@ -1264,13 +1265,13 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="12" t="s">
-        <v>46</v>
+      <c r="K24" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4">
         <v>19.350000000000001</v>
@@ -1284,8 +1285,8 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="12" t="s">
-        <v>46</v>
+      <c r="K25" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1296,6 +1297,7 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="F2:G2"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>